--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T17:38:01+01:00</t>
+    <t>2023-03-02T19:45:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T21:18:11+01:00</t>
+    <t>2023-03-02T21:55:41+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T22:37:28+01:00</t>
+    <t>2023-03-02T23:17:06+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T23:17:06+01:00</t>
+    <t>2023-03-03T00:07:18+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:07:18+01:00</t>
+    <t>2023-03-03T00:29:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T00:29:20+01:00</t>
+    <t>2023-03-03T03:09:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -658,7 +658,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the coding value for classificiation of data elements.</t>
+    <t>Slice based on the category.coding value for classificiation of data elements.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -2075,7 +2075,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="60.6484375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T03:09:30+01:00</t>
+    <t>2023-03-03T12:59:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T12:59:12+01:00</t>
+    <t>2023-03-03T15:59:45+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:59:45+01:00</t>
+    <t>2023-03-03T16:34:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T18:31:25+01:00</t>
+    <t>2023-03-04T00:41:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T03:06:34+01:00</t>
+    <t>2023-03-04T04:05:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="543">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T04:05:22+01:00</t>
+    <t>2023-03-04T20:22:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -654,14 +654,11 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t xml:space="preserve">value:coding}
-</t>
-  </si>
-  <si>
-    <t>Slice based on the category.coding value for classificiation of data elements.</t>
-  </si>
-  <si>
-    <t>openAtEnd</t>
+    <t>value:$this.code}
+value:$this.system}</t>
+  </si>
+  <si>
+    <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -2075,7 +2072,7 @@
     <col min="26" max="26" width="50.89453125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="68.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="88.40625" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="40.19140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -3865,10 +3862,10 @@
         <v>205</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3892,13 +3889,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN15" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN15" t="s" s="2">
+      <c r="AO15" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AO15" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3906,13 +3903,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3946,7 +3943,7 @@
         <v>200</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4016,13 +4013,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN16" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN16" t="s" s="2">
+      <c r="AO16" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4030,10 +4027,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4056,13 +4053,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4113,7 +4110,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4148,10 +4145,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>219</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4180,7 +4177,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4233,7 +4230,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4268,10 +4265,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4294,19 +4291,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L19" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>226</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="N19" t="s" s="2">
+      <c r="O19" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="O19" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4355,7 +4352,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4376,10 +4373,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN19" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4390,10 +4387,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>233</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4416,13 +4413,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4473,7 +4470,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4508,10 +4505,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B21" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4540,7 +4537,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4593,7 +4590,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4628,10 +4625,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B22" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4657,65 +4654,65 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="M22" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="M22" t="s" s="2">
+      <c r="N22" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="N22" t="s" s="2">
+      <c r="O22" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="O22" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="S22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE22" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF22" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE22" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF22" t="s" s="2">
-        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4736,10 +4733,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AN22" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="AN22" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4750,10 +4747,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="B23" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4776,16 +4773,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="N23" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4835,7 +4832,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4856,10 +4853,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>253</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4870,10 +4867,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4899,65 +4896,65 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="M24" t="s" s="2">
+      <c r="N24" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="N24" t="s" s="2">
+      <c r="O24" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="O24" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="S24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE24" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF24" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4978,10 +4975,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
+        <v>262</v>
+      </c>
+      <c r="AN24" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AN24" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4992,10 +4989,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="B25" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5018,19 +5015,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
+        <v>258</v>
+      </c>
+      <c r="O25" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5079,7 +5076,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5100,10 +5097,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AN25" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5114,10 +5111,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B26" t="s" s="2">
         <v>273</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5140,19 +5137,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>276</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5201,7 +5198,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5222,10 +5219,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AN26" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5236,10 +5233,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5262,19 +5259,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5323,7 +5320,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5344,10 +5341,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5358,13 +5355,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5398,7 +5395,7 @@
         <v>200</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5408,7 +5405,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5468,13 +5465,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN28" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5482,13 +5479,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5522,7 +5519,7 @@
         <v>200</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5532,7 +5529,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5592,13 +5589,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5606,14 +5603,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5635,16 +5632,16 @@
         <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="M30" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="N30" t="s" s="2">
+      <c r="O30" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="O30" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5669,14 +5666,14 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y30" t="s" s="2">
+      <c r="Z30" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Z30" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
       </c>
@@ -5693,7 +5690,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>92</v>
@@ -5708,30 +5705,30 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN30" t="s" s="2">
+      <c r="AO30" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="AO30" t="s" s="2">
+      <c r="AP30" t="s" s="2">
         <v>311</v>
-      </c>
-      <c r="AP30" t="s" s="2">
-        <v>312</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5754,19 +5751,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>314</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="M31" t="s" s="2">
+      <c r="N31" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="N31" t="s" s="2">
+      <c r="O31" t="s" s="2">
         <v>317</v>
-      </c>
-      <c r="O31" t="s" s="2">
-        <v>318</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5815,7 +5812,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5830,19 +5827,19 @@
         <v>170</v>
       </c>
       <c r="AK31" t="s" s="2">
+        <v>318</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM31" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="AL31" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM31" t="s" s="2">
+      <c r="AN31" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="AN31" t="s" s="2">
+      <c r="AO31" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5850,10 +5847,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5876,16 +5873,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="M32" t="s" s="2">
+      <c r="N32" t="s" s="2">
         <v>326</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>327</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5935,7 +5932,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5956,13 +5953,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5970,14 +5967,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5996,19 +5993,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>331</v>
       </c>
-      <c r="L33" t="s" s="2">
+      <c r="M33" t="s" s="2">
         <v>332</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>333</v>
       </c>
-      <c r="N33" t="s" s="2">
+      <c r="O33" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6057,7 +6054,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6072,19 +6069,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="AL33" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AN33" t="s" s="2">
         <v>337</v>
       </c>
-      <c r="AN33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6092,14 +6089,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6118,19 +6115,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="L34" t="s" s="2">
+      <c r="M34" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="M34" t="s" s="2">
+      <c r="N34" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="N34" t="s" s="2">
+      <c r="O34" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6179,7 +6176,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6194,19 +6191,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AL34" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM34" t="s" s="2">
+      <c r="AN34" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AN34" t="s" s="2">
+      <c r="AO34" t="s" s="2">
         <v>349</v>
-      </c>
-      <c r="AO34" t="s" s="2">
-        <v>350</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6214,10 +6211,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6240,16 +6237,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>352</v>
       </c>
-      <c r="L35" t="s" s="2">
+      <c r="M35" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="M35" t="s" s="2">
+      <c r="N35" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6299,7 +6296,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6320,13 +6317,13 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN35" t="s" s="2">
         <v>356</v>
       </c>
-      <c r="AN35" t="s" s="2">
+      <c r="AO35" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>358</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6334,10 +6331,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6360,19 +6357,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="L36" t="s" s="2">
+      <c r="M36" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6421,7 +6418,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6436,19 +6433,19 @@
         <v>170</v>
       </c>
       <c r="AK36" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM36" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="AL36" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AN36" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AN36" t="s" s="2">
+      <c r="AO36" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>367</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6456,10 +6453,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6482,19 +6479,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>370</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>371</v>
       </c>
-      <c r="N37" t="s" s="2">
+      <c r="O37" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6543,7 +6540,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6552,7 +6549,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6561,27 +6558,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>375</v>
       </c>
-      <c r="AM37" t="s" s="2">
+      <c r="AN37" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AN37" t="s" s="2">
+      <c r="AO37" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP37" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6607,16 +6604,16 @@
         <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>380</v>
       </c>
-      <c r="M38" t="s" s="2">
+      <c r="N38" t="s" s="2">
         <v>381</v>
       </c>
-      <c r="N38" t="s" s="2">
+      <c r="O38" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6641,14 +6638,14 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y38" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y38" t="s" s="2">
+      <c r="Z38" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z38" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
       </c>
@@ -6665,7 +6662,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6674,7 +6671,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6689,7 +6686,7 @@
         <v>106</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6700,14 +6697,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6729,16 +6726,16 @@
         <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M39" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M39" t="s" s="2">
+      <c r="N39" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N39" t="s" s="2">
+      <c r="O39" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6763,14 +6760,14 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Y39" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z39" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z39" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
       </c>
@@ -6787,7 +6784,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6805,27 +6802,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM39" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN39" t="s" s="2">
+      <c r="AO39" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP39" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6848,19 +6845,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>403</v>
       </c>
-      <c r="M40" t="s" s="2">
+      <c r="N40" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="N40" t="s" s="2">
+      <c r="O40" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6909,7 +6906,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6930,10 +6927,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>408</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6944,10 +6941,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6973,13 +6970,13 @@
         <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>410</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>411</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>412</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7005,14 +7002,14 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y41" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="Z41" t="s" s="2">
         <v>413</v>
       </c>
-      <c r="Z41" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
       </c>
@@ -7029,7 +7026,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7047,27 +7044,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="AM41" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>416</v>
       </c>
-      <c r="AN41" t="s" s="2">
+      <c r="AO41" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP41" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="AO41" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP41" t="s" s="2">
-        <v>418</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7093,16 +7090,16 @@
         <v>197</v>
       </c>
       <c r="L42" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="M42" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>421</v>
       </c>
-      <c r="N42" t="s" s="2">
+      <c r="O42" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7127,14 +7124,14 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z42" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z42" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
       </c>
@@ -7151,7 +7148,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7172,10 +7169,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7186,10 +7183,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7212,16 +7209,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>430</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>432</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7271,7 +7268,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7289,27 +7286,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>433</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>434</v>
       </c>
-      <c r="AN43" t="s" s="2">
+      <c r="AO43" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP43" t="s" s="2">
         <v>435</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>436</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7332,16 +7329,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>438</v>
       </c>
-      <c r="L44" t="s" s="2">
+      <c r="M44" t="s" s="2">
         <v>439</v>
       </c>
-      <c r="M44" t="s" s="2">
+      <c r="N44" t="s" s="2">
         <v>440</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>441</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7391,7 +7388,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7409,27 +7406,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM44" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="AN44" t="s" s="2">
+      <c r="AO44" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP44" t="s" s="2">
         <v>444</v>
-      </c>
-      <c r="AO44" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP44" t="s" s="2">
-        <v>445</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7452,19 +7449,19 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="L45" t="s" s="2">
+      <c r="M45" t="s" s="2">
         <v>448</v>
       </c>
-      <c r="M45" t="s" s="2">
+      <c r="N45" t="s" s="2">
         <v>449</v>
       </c>
-      <c r="N45" t="s" s="2">
+      <c r="O45" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O45" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7513,7 +7510,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7525,19 +7522,19 @@
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="AK45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL45" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM45" t="s" s="2">
+      <c r="AN45" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AN45" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7548,10 +7545,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7574,13 +7571,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L46" t="s" s="2">
+      <c r="M46" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7631,7 +7628,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7666,10 +7663,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7698,7 +7695,7 @@
         <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7751,7 +7748,7 @@
         <v>146</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7786,14 +7783,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7815,10 +7812,10 @@
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M48" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7873,7 +7870,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7908,10 +7905,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7934,16 +7931,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>463</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="M49" t="s" s="2">
+      <c r="N49" t="s" s="2">
         <v>465</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>466</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7993,7 +7990,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -8002,22 +7999,22 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AK49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8028,10 +8025,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8054,16 +8051,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>472</v>
       </c>
-      <c r="M50" t="s" s="2">
-        <v>473</v>
-      </c>
       <c r="N50" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8113,7 +8110,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8122,22 +8119,22 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="AJ50" t="s" s="2">
+      <c r="AK50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM50" t="s" s="2">
         <v>468</v>
       </c>
-      <c r="AK50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>469</v>
-      </c>
       <c r="AN50" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8148,10 +8145,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8177,16 +8174,16 @@
         <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M51" t="s" s="2">
         <v>476</v>
       </c>
-      <c r="M51" t="s" s="2">
+      <c r="N51" t="s" s="2">
         <v>477</v>
       </c>
-      <c r="N51" t="s" s="2">
+      <c r="O51" t="s" s="2">
         <v>478</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8214,11 +8211,11 @@
         <v>119</v>
       </c>
       <c r="Y51" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z51" t="s" s="2">
         <v>480</v>
       </c>
-      <c r="Z51" t="s" s="2">
-        <v>481</v>
-      </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
       </c>
@@ -8235,7 +8232,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8253,13 +8250,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM51" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM51" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="AN51" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8270,10 +8267,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8299,16 +8296,16 @@
         <v>197</v>
       </c>
       <c r="L52" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M52" t="s" s="2">
         <v>485</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="N52" t="s" s="2">
+      <c r="O52" t="s" s="2">
         <v>487</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>488</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8333,14 +8330,14 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Y52" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="Z52" t="s" s="2">
         <v>489</v>
       </c>
-      <c r="Z52" t="s" s="2">
-        <v>490</v>
-      </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
       </c>
@@ -8357,7 +8354,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8375,13 +8372,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AM52" t="s" s="2">
         <v>482</v>
       </c>
-      <c r="AM52" t="s" s="2">
-        <v>483</v>
-      </c>
       <c r="AN52" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8392,10 +8389,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8418,19 +8415,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="N53" t="s" s="2">
+      <c r="O53" t="s" s="2">
         <v>495</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>496</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8479,7 +8476,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8491,19 +8488,19 @@
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AM53" t="s" s="2">
         <v>497</v>
       </c>
-      <c r="AK53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AM53" t="s" s="2">
+      <c r="AN53" t="s" s="2">
         <v>498</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>499</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8514,10 +8511,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8540,16 +8537,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="M54" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="M54" t="s" s="2">
-        <v>502</v>
-      </c>
       <c r="N54" t="s" s="2">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8599,7 +8596,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8620,10 +8617,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8634,10 +8631,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8660,16 +8657,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>505</v>
       </c>
-      <c r="L55" t="s" s="2">
+      <c r="M55" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="M55" t="s" s="2">
+      <c r="N55" t="s" s="2">
         <v>507</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>508</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8719,7 +8716,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8740,10 +8737,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>509</v>
-      </c>
-      <c r="AN55" t="s" s="2">
-        <v>510</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8754,10 +8751,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8780,16 +8777,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>512</v>
       </c>
-      <c r="L56" t="s" s="2">
+      <c r="M56" t="s" s="2">
         <v>513</v>
       </c>
-      <c r="M56" t="s" s="2">
+      <c r="N56" t="s" s="2">
         <v>514</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>515</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8839,7 +8836,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8860,10 +8857,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8874,10 +8871,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8900,19 +8897,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="M57" t="s" s="2">
+      <c r="N57" t="s" s="2">
         <v>519</v>
       </c>
-      <c r="N57" t="s" s="2">
+      <c r="O57" t="s" s="2">
         <v>520</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>521</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8961,7 +8958,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8982,10 +8979,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AN57" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AN57" t="s" s="2">
-        <v>523</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8996,10 +8993,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9022,13 +9019,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9079,7 +9076,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9114,10 +9111,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9146,7 +9143,7 @@
         <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9199,7 +9196,7 @@
         <v>146</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9234,14 +9231,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9263,10 +9260,10 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>460</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9321,7 +9318,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9356,10 +9353,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9385,16 +9382,16 @@
         <v>197</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>528</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>529</v>
       </c>
-      <c r="N61" t="s" s="2">
-        <v>530</v>
-      </c>
       <c r="O61" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9419,14 +9416,14 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="Y61" t="s" s="2">
+      <c r="Z61" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>306</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
       </c>
@@ -9443,7 +9440,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9461,16 +9458,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AM61" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>309</v>
       </c>
-      <c r="AN61" t="s" s="2">
+      <c r="AO61" t="s" s="2">
         <v>310</v>
-      </c>
-      <c r="AO61" t="s" s="2">
-        <v>311</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9478,10 +9475,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9504,19 +9501,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="N62" t="s" s="2">
         <v>533</v>
       </c>
-      <c r="M62" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N62" t="s" s="2">
-        <v>534</v>
-      </c>
       <c r="O62" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9565,7 +9562,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9583,27 +9580,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AM62" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="AN62" t="s" s="2">
+      <c r="AO62" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP62" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="AO62" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP62" t="s" s="2">
-        <v>378</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9629,16 +9626,16 @@
         <v>197</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>537</v>
       </c>
-      <c r="M63" t="s" s="2">
+      <c r="N63" t="s" s="2">
         <v>538</v>
       </c>
-      <c r="N63" t="s" s="2">
-        <v>539</v>
-      </c>
       <c r="O63" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9663,14 +9660,14 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y63" t="s" s="2">
+      <c r="Z63" t="s" s="2">
         <v>385</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>386</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
       </c>
@@ -9687,7 +9684,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9696,7 +9693,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9711,7 +9708,7 @@
         <v>106</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9722,14 +9719,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9751,16 +9748,16 @@
         <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>391</v>
       </c>
-      <c r="M64" t="s" s="2">
+      <c r="N64" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="N64" t="s" s="2">
+      <c r="O64" t="s" s="2">
         <v>393</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>394</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9785,14 +9782,14 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Y64" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="Z64" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="Z64" t="s" s="2">
-        <v>396</v>
-      </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
       </c>
@@ -9809,7 +9806,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9827,27 +9824,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="AM64" t="s" s="2">
+      <c r="AN64" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="AN64" t="s" s="2">
+      <c r="AO64" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AP64" t="s" s="2">
         <v>399</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>400</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9873,16 +9870,16 @@
         <v>83</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>542</v>
       </c>
-      <c r="M65" t="s" s="2">
-        <v>543</v>
-      </c>
       <c r="N65" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="O65" t="s" s="2">
         <v>450</v>
-      </c>
-      <c r="O65" t="s" s="2">
-        <v>451</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9931,7 +9928,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9952,10 +9949,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>453</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>454</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2544" uniqueCount="544">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-04T20:22:12+01:00</t>
+    <t>2023-03-05T01:48:17+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -654,11 +654,14 @@
     <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
-    <t>value:$this.code}
-value:$this.system}</t>
+    <t xml:space="preserve">value:coding.code}
+</t>
   </si>
   <si>
     <t>Slice based on the coding.code &amp; coding.system to allow multiple classifications of data elements.</t>
+  </si>
+  <si>
+    <t>openAtEnd</t>
   </si>
   <si>
     <t>CE/CNE/CWE</t>
@@ -3862,10 +3865,10 @@
         <v>205</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>206</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>196</v>
@@ -3889,13 +3892,13 @@
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>82</v>
@@ -3903,13 +3906,13 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>82</v>
@@ -3943,7 +3946,7 @@
         <v>200</v>
       </c>
       <c r="O16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>82</v>
@@ -4013,13 +4016,13 @@
         <v>82</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>82</v>
@@ -4027,10 +4030,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4053,13 +4056,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4110,7 +4113,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -4145,10 +4148,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4177,7 +4180,7 @@
         <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>143</v>
@@ -4230,7 +4233,7 @@
         <v>146</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4265,10 +4268,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4276,13 +4279,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
         <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>82</v>
@@ -4291,19 +4294,19 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4352,7 +4355,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4373,10 +4376,10 @@
         <v>82</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>82</v>
@@ -4387,10 +4390,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4413,13 +4416,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4470,7 +4473,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4505,10 +4508,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4537,7 +4540,7 @@
         <v>141</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N21" t="s" s="2">
         <v>143</v>
@@ -4590,7 +4593,7 @@
         <v>146</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4625,10 +4628,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4636,13 +4639,13 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I22" t="s" s="2">
         <v>82</v>
@@ -4654,23 +4657,23 @@
         <v>108</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="S22" t="s" s="2">
         <v>82</v>
@@ -4712,7 +4715,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4733,10 +4736,10 @@
         <v>82</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AO22" t="s" s="2">
         <v>82</v>
@@ -4747,10 +4750,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4773,16 +4776,16 @@
         <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4832,7 +4835,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4853,10 +4856,10 @@
         <v>82</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AO23" t="s" s="2">
         <v>82</v>
@@ -4867,10 +4870,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4878,13 +4881,13 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>92</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>82</v>
@@ -4896,23 +4899,23 @@
         <v>115</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>82</v>
@@ -4954,7 +4957,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4975,10 +4978,10 @@
         <v>82</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>82</v>
@@ -4989,10 +4992,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5015,19 +5018,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5076,7 +5079,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -5097,10 +5100,10 @@
         <v>82</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>82</v>
@@ -5111,10 +5114,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5137,19 +5140,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5198,7 +5201,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -5219,10 +5222,10 @@
         <v>82</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>82</v>
@@ -5233,10 +5236,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5259,19 +5262,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5320,7 +5323,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5341,10 +5344,10 @@
         <v>82</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>82</v>
@@ -5355,13 +5358,13 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C28" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D28" t="s" s="2">
         <v>82</v>
@@ -5395,7 +5398,7 @@
         <v>200</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P28" t="s" s="2">
         <v>82</v>
@@ -5405,7 +5408,7 @@
         <v>82</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T28" t="s" s="2">
         <v>82</v>
@@ -5465,13 +5468,13 @@
         <v>82</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>82</v>
@@ -5479,13 +5482,13 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>196</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>82</v>
@@ -5519,7 +5522,7 @@
         <v>200</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>82</v>
@@ -5529,7 +5532,7 @@
         <v>82</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="T29" t="s" s="2">
         <v>82</v>
@@ -5589,13 +5592,13 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>82</v>
@@ -5603,14 +5606,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5632,16 +5635,16 @@
         <v>197</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="O30" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P30" t="s" s="2">
         <v>82</v>
@@ -5666,13 +5669,13 @@
         <v>82</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>82</v>
@@ -5690,7 +5693,7 @@
         <v>82</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>92</v>
@@ -5705,30 +5708,30 @@
         <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5751,19 +5754,19 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>82</v>
@@ -5812,7 +5815,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5827,19 +5830,19 @@
         <v>170</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP31" t="s" s="2">
         <v>82</v>
@@ -5847,10 +5850,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5873,16 +5876,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5932,7 +5935,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5953,13 +5956,13 @@
         <v>82</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AP32" t="s" s="2">
         <v>82</v>
@@ -5967,14 +5970,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -5993,19 +5996,19 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="P33" t="s" s="2">
         <v>82</v>
@@ -6054,7 +6057,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -6069,19 +6072,19 @@
         <v>170</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>82</v>
@@ -6089,14 +6092,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6115,19 +6118,19 @@
         <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>82</v>
@@ -6176,7 +6179,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6191,19 +6194,19 @@
         <v>105</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>82</v>
@@ -6211,10 +6214,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6237,16 +6240,16 @@
         <v>93</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6296,7 +6299,7 @@
         <v>82</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6317,13 +6320,13 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AP35" t="s" s="2">
         <v>82</v>
@@ -6331,10 +6334,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6357,19 +6360,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="N36" t="s" s="2">
         <v>168</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6418,7 +6421,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6433,19 +6436,19 @@
         <v>170</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AP36" t="s" s="2">
         <v>82</v>
@@ -6453,10 +6456,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6479,19 +6482,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6540,7 +6543,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6549,7 +6552,7 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>105</v>
@@ -6558,27 +6561,27 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6604,16 +6607,16 @@
         <v>197</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6638,13 +6641,13 @@
         <v>82</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>82</v>
@@ -6662,7 +6665,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6671,7 +6674,7 @@
         <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>105</v>
@@ -6686,7 +6689,7 @@
         <v>106</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>82</v>
@@ -6697,14 +6700,14 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6726,16 +6729,16 @@
         <v>197</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>82</v>
@@ -6760,13 +6763,13 @@
         <v>82</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>82</v>
@@ -6784,7 +6787,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6802,27 +6805,27 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6845,19 +6848,19 @@
         <v>82</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>82</v>
@@ -6906,7 +6909,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6927,10 +6930,10 @@
         <v>82</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>82</v>
@@ -6941,10 +6944,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6970,13 +6973,13 @@
         <v>197</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7002,13 +7005,13 @@
         <v>82</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>82</v>
@@ -7026,7 +7029,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7044,27 +7047,27 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7090,16 +7093,16 @@
         <v>197</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>82</v>
@@ -7124,13 +7127,13 @@
         <v>82</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>82</v>
@@ -7148,7 +7151,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7169,10 +7172,10 @@
         <v>82</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>82</v>
@@ -7183,10 +7186,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7209,16 +7212,16 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7268,7 +7271,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7286,27 +7289,27 @@
         <v>82</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7329,16 +7332,16 @@
         <v>82</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7388,7 +7391,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7406,27 +7409,27 @@
         <v>82</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7449,19 +7452,19 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O45" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>82</v>
@@ -7510,7 +7513,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7522,7 +7525,7 @@
         <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>82</v>
@@ -7531,10 +7534,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7545,10 +7548,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7571,13 +7574,13 @@
         <v>82</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7628,7 +7631,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7663,10 +7666,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7695,7 +7698,7 @@
         <v>141</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>143</v>
@@ -7748,7 +7751,7 @@
         <v>146</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7783,14 +7786,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7812,10 +7815,10 @@
         <v>140</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N48" t="s" s="2">
         <v>143</v>
@@ -7870,7 +7873,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7905,10 +7908,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7931,16 +7934,16 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7990,7 +7993,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7999,10 +8002,10 @@
         <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>82</v>
@@ -8011,10 +8014,10 @@
         <v>82</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>82</v>
@@ -8025,10 +8028,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8051,16 +8054,16 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -8110,7 +8113,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -8119,10 +8122,10 @@
         <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>82</v>
@@ -8131,10 +8134,10 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>82</v>
@@ -8145,10 +8148,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8174,16 +8177,16 @@
         <v>197</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>82</v>
@@ -8211,10 +8214,10 @@
         <v>119</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>82</v>
@@ -8232,7 +8235,7 @@
         <v>82</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8250,13 +8253,13 @@
         <v>82</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>82</v>
@@ -8267,10 +8270,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8296,16 +8299,16 @@
         <v>197</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>82</v>
@@ -8330,13 +8333,13 @@
         <v>82</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>82</v>
@@ -8354,7 +8357,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8372,13 +8375,13 @@
         <v>82</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>82</v>
@@ -8389,10 +8392,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8415,19 +8418,19 @@
         <v>82</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>82</v>
@@ -8476,7 +8479,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8488,7 +8491,7 @@
         <v>104</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>82</v>
@@ -8497,10 +8500,10 @@
         <v>82</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>82</v>
@@ -8511,10 +8514,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8537,16 +8540,16 @@
         <v>82</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8596,7 +8599,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8617,10 +8620,10 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>82</v>
@@ -8631,10 +8634,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8657,16 +8660,16 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -8716,7 +8719,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8737,10 +8740,10 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>82</v>
@@ -8751,10 +8754,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8777,16 +8780,16 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8836,7 +8839,7 @@
         <v>82</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8857,10 +8860,10 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>82</v>
@@ -8871,10 +8874,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8897,19 +8900,19 @@
         <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8958,7 +8961,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8979,10 +8982,10 @@
         <v>82</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>82</v>
@@ -8993,10 +8996,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9019,13 +9022,13 @@
         <v>82</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -9076,7 +9079,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9111,10 +9114,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9143,7 +9146,7 @@
         <v>141</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N59" t="s" s="2">
         <v>143</v>
@@ -9196,7 +9199,7 @@
         <v>146</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9231,14 +9234,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9260,10 +9263,10 @@
         <v>140</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N60" t="s" s="2">
         <v>143</v>
@@ -9318,7 +9321,7 @@
         <v>82</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9353,10 +9356,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9382,16 +9385,16 @@
         <v>197</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9416,13 +9419,13 @@
         <v>82</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>82</v>
@@ -9440,7 +9443,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>92</v>
@@ -9458,16 +9461,16 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>82</v>
@@ -9475,10 +9478,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9501,19 +9504,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>82</v>
@@ -9562,7 +9565,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9580,27 +9583,27 @@
         <v>82</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AO62" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9626,16 +9629,16 @@
         <v>197</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>82</v>
@@ -9660,13 +9663,13 @@
         <v>82</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Z63" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AA63" t="s" s="2">
         <v>82</v>
@@ -9684,7 +9687,7 @@
         <v>82</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9693,7 +9696,7 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>105</v>
@@ -9708,7 +9711,7 @@
         <v>106</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AO63" t="s" s="2">
         <v>82</v>
@@ -9719,14 +9722,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9748,16 +9751,16 @@
         <v>197</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9782,13 +9785,13 @@
         <v>82</v>
       </c>
       <c r="X64" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Y64" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="Z64" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AA64" t="s" s="2">
         <v>82</v>
@@ -9806,7 +9809,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9824,27 +9827,27 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AP64" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9870,16 +9873,16 @@
         <v>83</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>82</v>
@@ -9928,7 +9931,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9949,10 +9952,10 @@
         <v>82</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>82</v>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T01:48:17+01:00</t>
+    <t>2023-03-05T02:26:26+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T02:26:26+01:00</t>
+    <t>2023-03-05T17:53:57+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T17:53:57+01:00</t>
+    <t>2023-03-05T18:57:32+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-05T18:57:32+01:00</t>
+    <t>2023-03-06T10:30:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T10:30:47+01:00</t>
+    <t>2023-03-06T11:09:37+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:09:37+01:00</t>
+    <t>2023-03-06T11:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
+++ b/output/StructureDefinition-cls-l1-physical-measurements-and-assessment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T11:31:12+01:00</t>
+    <t>2023-03-06T13:11:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
